--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -751,19 +754,22 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,11 +777,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
@@ -800,26 +806,29 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -827,19 +836,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,34 +946,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -965,11 +984,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,13 +1143,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1126,145 +1159,157 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1400</v>
       </c>
       <c r="J21" s="3">
         <v>-1400</v>
       </c>
       <c r="K21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,13 +1633,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1582,69 +1651,75 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,17 +1959,20 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1923,60 +2018,63 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -1984,46 +2082,52 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>6000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,37 +2164,40 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2110,25 +2220,25 @@
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2230,19 +2349,19 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>7200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,84 +2487,91 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E58" s="3">
         <v>10300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2446,25 +2582,25 @@
         <v>3600</v>
       </c>
       <c r="F59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -2472,37 +2608,40 @@
       <c r="N59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E60" s="3">
         <v>16600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,52 +2661,55 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>18800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2574,8 +2719,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,37 +2854,40 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E66" s="3">
         <v>17600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,37 +3076,40 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-43300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-100</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
       </c>
       <c r="K72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-20300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-100</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -2944,8 +3117,11 @@
       <c r="N72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-25700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-20700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9900</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3260,8 +3458,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,29 +3672,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3528,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -3551,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,25 +3865,25 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
@@ -3665,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,54 +4075,60 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>6900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -3888,17 +4136,17 @@
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,143 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -809,22 +823,28 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>700</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -833,25 +853,31 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-600</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-2700</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,172 +1210,198 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>700</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,23 +2142,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2003,16 +2189,22 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -2021,113 +2213,131 @@
         <v>400</v>
       </c>
       <c r="H44" s="3">
+        <v>400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,90 +2377,108 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
       <c r="G49" s="3">
+        <v>300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>300</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2352,28 +2592,34 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,95 +2748,109 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10100</v>
+        <v>10700</v>
       </c>
       <c r="E58" s="3">
         <v>10300</v>
       </c>
       <c r="F58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>14100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>13900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="E59" s="3">
         <v>3600</v>
@@ -2585,116 +2859,134 @@
         <v>3600</v>
       </c>
       <c r="G59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F60" s="3">
         <v>16100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
       <c r="L60" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>5900</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
         <v>18800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>2800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2702,31 +2994,31 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F66" s="3">
         <v>16700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>29100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>23500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>11100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
       <c r="L66" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>8600</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-51800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-43300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-38200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-32400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-20300</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
       </c>
       <c r="N72" s="3">
-        <v>-100</v>
+        <v>-20300</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-25700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-20700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-14900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-9900</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
       <c r="L76" s="3">
-        <v>-7900</v>
+        <v>0</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,17 +3859,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,35 +4103,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,16 +4173,18 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3751,22 +4193,22 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3868,28 +4328,28 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
@@ -3897,8 +4357,14 @@
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,81 +4564,93 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>6900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,162 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>400</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
@@ -829,28 +842,34 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
@@ -859,25 +878,31 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>900</v>
       </c>
       <c r="F12" s="3">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>900</v>
+      </c>
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1022,67 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,93 +1161,105 @@
         <v>3900</v>
       </c>
       <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,90 +1397,102 @@
         <v>500</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>700</v>
       </c>
       <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>700</v>
       </c>
       <c r="K22" s="3">
+        <v>600</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,29 +2327,35 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2195,22 +2380,28 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2219,125 +2410,143 @@
         <v>400</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>400</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2592,67 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,43 +2663,49 @@
         <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
       </c>
       <c r="I49" s="3">
+        <v>300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>300</v>
+      </c>
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,16 +2804,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2598,28 +2837,34 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,113 +3009,127 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F58" s="3">
         <v>10700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10100</v>
       </c>
       <c r="G58" s="3">
         <v>10300</v>
       </c>
       <c r="H58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>14100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>13900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
         <v>3900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>3600</v>
       </c>
       <c r="G59" s="3">
         <v>3600</v>
@@ -2865,81 +3138,93 @@
         <v>3600</v>
       </c>
       <c r="I59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F60" s="3">
         <v>18000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>18400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
       <c r="N60" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>5900</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2947,51 +3232,57 @@
         <v>900</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
+        <v>500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>500</v>
+      </c>
+      <c r="J61" s="3">
         <v>18800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>2800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3000,31 +3291,31 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F66" s="3">
         <v>19000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>17600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>29100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11100</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
       <c r="N66" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>8600</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-61100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-54600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-51800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-48500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-43300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-38200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-20300</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
       </c>
       <c r="P72" s="3">
-        <v>-100</v>
+        <v>-20300</v>
       </c>
       <c r="Q72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-16400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-15100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-12400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-10300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-25700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-20700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-14900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-9900</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
       <c r="N76" s="3">
-        <v>-7900</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3865,17 +4262,23 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,41 +4536,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-3800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,22 +4614,24 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4199,22 +4640,22 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4334,28 +4793,28 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>6900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4631,32 +5128,32 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -784,46 +788,49 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -848,41 +855,44 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -890,19 +900,22 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,49 +1045,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-2700</v>
       </c>
       <c r="F18" s="3">
         <v>-2700</v>
       </c>
       <c r="G18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,29 +1312,30 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1309,89 +1343,95 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1400</v>
       </c>
       <c r="O21" s="3">
         <v>-1400</v>
       </c>
       <c r="P21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
@@ -1403,96 +1443,102 @@
         <v>500</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,29 +1982,32 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1945,84 +2015,90 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>26100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,23 +2435,23 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,16 +2491,16 @@
         <v>1200</v>
       </c>
       <c r="E44" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F44" s="3">
         <v>1000</v>
       </c>
       <c r="G44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
@@ -2416,75 +2512,78 @@
         <v>400</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E46" s="3">
         <v>27900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,43 +2715,43 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
@@ -2651,13 +2759,16 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
@@ -2669,7 +2780,7 @@
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
@@ -2678,25 +2789,25 @@
         <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +2927,22 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2843,19 +2963,19 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E54" s="3">
         <v>28500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,128 +3141,135 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>13900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="E59" s="3">
         <v>3100</v>
       </c>
       <c r="F59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G59" s="3">
         <v>3900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3600</v>
       </c>
       <c r="H59" s="3">
         <v>3600</v>
@@ -3144,25 +3281,25 @@
         <v>3600</v>
       </c>
       <c r="K59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3170,52 +3307,55 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
         <v>12500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,13 +3375,13 @@
         <v>900</v>
       </c>
       <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -3247,37 +3390,40 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
+        <v>500</v>
+      </c>
+      <c r="K61" s="3">
         <v>18800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,26 +3434,26 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3317,8 +3463,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,52 +3643,55 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E66" s="3">
         <v>13400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11100</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,52 +3945,55 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-61100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-100</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
       </c>
       <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-20300</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-100</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-13700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-16400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-25700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-20700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9900</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,44 +4756,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,25 +4836,26 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4646,19 +4867,19 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4799,25 +5029,25 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>26600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5134,11 +5383,11 @@
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -5146,17 +5395,17 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>23900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,192 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -858,37 +872,43 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -897,25 +917,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +962,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>900</v>
       </c>
       <c r="G12" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
       </c>
       <c r="I12" s="3">
+        <v>800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,55 +1097,61 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F17" s="3">
         <v>4000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3300</v>
       </c>
       <c r="G17" s="3">
         <v>3900</v>
       </c>
       <c r="H17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,131 +1379,145 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-8200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
@@ -1446,99 +1526,111 @@
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>700</v>
       </c>
       <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>700</v>
       </c>
       <c r="N22" s="3">
+        <v>600</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,87 +2486,95 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F41" s="3">
         <v>24000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>26100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2426,38 +2606,44 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2482,31 +2668,37 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
@@ -2515,143 +2707,161 @@
         <v>400</v>
       </c>
       <c r="M44" s="3">
+        <v>400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>63500</v>
+      </c>
+      <c r="F46" s="3">
         <v>26200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>27900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,75 +2916,87 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
-        <v>400</v>
-      </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -2783,43 +3005,49 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
       </c>
       <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>300</v>
+      </c>
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,25 +3164,31 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2966,28 +3206,34 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>132700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F54" s="3">
         <v>26900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,131 +3413,143 @@
         <v>1900</v>
       </c>
       <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>7200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>11800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>10700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10100</v>
       </c>
       <c r="J58" s="3">
         <v>10300</v>
       </c>
       <c r="K58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>14100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>13900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>3900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3600</v>
       </c>
       <c r="J59" s="3">
         <v>3600</v>
@@ -3284,160 +3558,178 @@
         <v>3600</v>
       </c>
       <c r="L59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
       <c r="Q59" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>16100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>18400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10800</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
-      </c>
       <c r="Q60" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>5900</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>900</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
       </c>
       <c r="K61" s="3">
+        <v>500</v>
+      </c>
+      <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
         <v>18800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>2800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3446,31 +3738,31 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F66" s="3">
         <v>12200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>18600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>29100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>23500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
-      </c>
       <c r="Q66" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>8600</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-68400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-65200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-61100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-54600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-51800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-48500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-43300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-38200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-32400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-24200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-20300</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
       </c>
       <c r="S72" s="3">
-        <v>-100</v>
+        <v>-20300</v>
       </c>
       <c r="T72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F76" s="3">
         <v>14700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-13700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-16400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-15100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-12400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-25700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-20700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-14900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-9900</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q76" s="3">
-        <v>-7900</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4819,15 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4470,17 +4868,23 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,50 +5187,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,31 +5277,33 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4870,22 +5312,22 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,20 +5459,26 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5032,28 +5492,28 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,84 +5793,96 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>40600</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>26600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>6900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>5100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -5392,26 +5890,26 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>23900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,142 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -805,55 +808,58 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -878,50 +884,53 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -929,19 +938,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,58 +1104,61 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1147,11 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2700</v>
       </c>
       <c r="I18" s="3">
         <v>-2700</v>
       </c>
       <c r="J18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,38 +1413,39 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1420,93 +1453,99 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1400</v>
       </c>
       <c r="R21" s="3">
         <v>-1400</v>
       </c>
       <c r="S21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,13 +1553,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1532,110 +1571,116 @@
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1646,14 +1691,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,38 +2191,41 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2164,93 +2233,99 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,79 +2573,83 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E41" s="3">
         <v>47500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>58600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2576,8 +2665,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2621,32 +2713,32 @@
         <v>1200</v>
       </c>
       <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2674,34 +2766,37 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1200</v>
       </c>
       <c r="G44" s="3">
         <v>1200</v>
       </c>
       <c r="H44" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I44" s="3">
         <v>1000</v>
       </c>
       <c r="J44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
@@ -2713,84 +2808,87 @@
         <v>400</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
@@ -2798,93 +2896,99 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E46" s="3">
         <v>46900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>63500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2922,61 +3026,64 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
@@ -2984,22 +3091,25 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E49" s="3">
         <v>84500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -3011,7 +3121,7 @@
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -3020,25 +3130,25 @@
         <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,28 +3286,31 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3212,19 +3331,19 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E54" s="3">
         <v>132700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
         <v>1900</v>
@@ -3419,55 +3549,58 @@
         <v>1900</v>
       </c>
       <c r="G57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3478,81 +3611,84 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>7200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>3900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3100</v>
       </c>
       <c r="H59" s="3">
         <v>3100</v>
       </c>
       <c r="I59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J59" s="3">
         <v>3900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3600</v>
       </c>
       <c r="K59" s="3">
         <v>3600</v>
@@ -3564,25 +3700,25 @@
         <v>3600</v>
       </c>
       <c r="N59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3590,61 +3726,64 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>17900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10800</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,19 +3806,19 @@
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>900</v>
       </c>
       <c r="H61" s="3">
+        <v>900</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -3685,49 +3827,52 @@
         <v>500</v>
       </c>
       <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
         <v>18800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>2800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>13200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
@@ -3735,26 +3880,26 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3764,8 +3909,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,61 +4116,64 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
         <v>17800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11100</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
       <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
-      </c>
-      <c r="T66" s="3">
-        <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,61 +4466,64 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-76100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-65200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-57800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-38200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-100</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
       </c>
       <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-20300</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-100</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E76" s="3">
         <v>114900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>59800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-13700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-15100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-25700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-20700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-7900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,17 +5018,18 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -4874,8 +5072,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>8</v>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,53 +5406,56 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,34 +5498,35 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5318,19 +5538,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,23 +5691,26 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5498,25 +5727,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>40600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2300</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5887,14 +6135,14 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
@@ -5902,17 +6150,17 @@
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>34500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>23900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,106 +774,112 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
@@ -887,46 +901,52 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -935,25 +955,31 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +1003,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
       </c>
       <c r="J12" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
       </c>
       <c r="L12" s="3">
+        <v>800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>900</v>
+      </c>
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1141,85 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F17" s="3">
         <v>7600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3300</v>
       </c>
       <c r="J17" s="3">
         <v>3900</v>
       </c>
       <c r="K17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1480,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>500</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
@@ -1574,137 +1654,149 @@
         <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>700</v>
       </c>
       <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>700</v>
       </c>
       <c r="Q22" s="3">
+        <v>600</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2328,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,88 +2746,96 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F41" s="3">
         <v>40800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>47500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>58600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>26100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2668,11 +2848,11 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2704,47 +2884,53 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2769,40 +2955,46 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E44" s="3">
         <v>1300</v>
       </c>
       <c r="F44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H44" s="3">
         <v>1100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
@@ -2811,172 +3003,190 @@
         <v>400</v>
       </c>
       <c r="P44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>400</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>35700</v>
+      </c>
+      <c r="F46" s="3">
         <v>44700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>46900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>63500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>27900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
+      <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>500</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2990,11 +3200,11 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3029,93 +3239,105 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>69300</v>
+      </c>
+      <c r="F49" s="3">
         <v>70200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>84500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -3124,43 +3346,49 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>300</v>
       </c>
       <c r="O49" s="3">
+        <v>300</v>
+      </c>
+      <c r="P49" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,25 +3538,25 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3334,28 +3574,34 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>112000</v>
+      </c>
+      <c r="F54" s="3">
         <v>117400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>132700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>64900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>26900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,158 +3805,170 @@
         <v>2400</v>
       </c>
       <c r="E57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="F57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="G57" s="3">
         <v>1900</v>
       </c>
       <c r="H57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>7200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>11800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>10700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>10300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>10100</v>
       </c>
       <c r="M58" s="3">
         <v>10300</v>
       </c>
       <c r="N58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="P58" s="3">
         <v>4100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>14100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>13900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>8900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V58" s="3">
         <v>3900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>3600</v>
       </c>
       <c r="M59" s="3">
         <v>3600</v>
@@ -3703,99 +3977,111 @@
         <v>3600</v>
       </c>
       <c r="O59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>17900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>16600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>18400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>10800</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
       <c r="T60" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>5900</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3809,81 +4095,87 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>900</v>
       </c>
       <c r="K61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
       </c>
       <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
         <v>18800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>2800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3892,31 +4184,31 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>29100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>23500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>17500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11100</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
       <c r="T66" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>8600</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-90300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-80300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-76100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-71200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-68400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-65200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-61100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-57800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-54600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-51800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-48500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-38200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-24200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-20300</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
       </c>
       <c r="V72" s="3">
-        <v>-100</v>
+        <v>-20300</v>
       </c>
       <c r="W72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>103600</v>
+      </c>
+      <c r="F76" s="3">
         <v>112200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>114900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>59800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>15100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-13700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-16400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-15100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-12400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-10300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-25700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-20700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-9900</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-100</v>
-      </c>
       <c r="T76" s="3">
-        <v>-7900</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="W76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,23 +5415,25 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -5075,17 +5473,23 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,59 +5837,65 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-4500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4600</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5908,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,40 +5939,42 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5541,22 +5983,22 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,29 +6148,35 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5730,28 +6190,28 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>40600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>26600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>5100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6138,8 +6636,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6147,26 +6645,26 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-11100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>34500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>23900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,50 +778,50 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -825,64 +829,67 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>600</v>
       </c>
       <c r="I9" s="3">
         <v>600</v>
       </c>
       <c r="J9" s="3">
+        <v>600</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
         <v>0</v>
       </c>
@@ -907,59 +914,62 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -967,19 +977,22 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,79 +1018,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E12" s="3">
         <v>4900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,56 +1178,56 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1215,11 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2700</v>
       </c>
       <c r="L18" s="3">
         <v>-2700</v>
       </c>
       <c r="M18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,35 +1528,35 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1530,102 +1564,108 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-800</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-1400</v>
       </c>
       <c r="U21" s="3">
         <v>-1400</v>
       </c>
       <c r="V21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1642,13 +1682,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
@@ -1660,137 +1700,143 @@
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>1600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -1798,8 +1844,8 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,35 +2416,35 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2382,102 +2452,108 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>800</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E41" s="3">
         <v>28000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>47500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>26100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2833,12 +2923,12 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2854,8 +2944,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2890,50 +2980,53 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1200</v>
       </c>
       <c r="G43" s="3">
         <v>1200</v>
       </c>
       <c r="H43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2961,43 +3054,46 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E44" s="3">
         <v>1300</v>
       </c>
       <c r="F44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1200</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
       </c>
       <c r="K44" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L44" s="3">
         <v>1000</v>
       </c>
       <c r="M44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N44" s="3">
         <v>600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>400</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
@@ -3009,93 +3105,96 @@
         <v>400</v>
       </c>
       <c r="R44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
       <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
       <c r="X44" s="3">
         <v>0</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
@@ -3103,84 +3202,90 @@
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E46" s="3">
         <v>31000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>44700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>63500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
@@ -3188,8 +3293,8 @@
       <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3206,8 +3311,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3245,70 +3350,73 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
@@ -3316,31 +3424,34 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E49" s="3">
         <v>75200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>69300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>70200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>84500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -3352,7 +3463,7 @@
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -3361,25 +3472,25 @@
         <v>300</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3544,22 +3664,22 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3580,19 +3700,19 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E54" s="3">
         <v>113900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>132700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,13 +3926,14 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="E57" s="3">
         <v>2400</v>
@@ -3811,7 +3942,7 @@
         <v>2400</v>
       </c>
       <c r="G57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="H57" s="3">
         <v>1900</v>
@@ -3820,55 +3951,58 @@
         <v>1900</v>
       </c>
       <c r="J57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3878,8 +4012,8 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3888,90 +4022,93 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>7200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>13900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3">
         <v>3900</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3100</v>
       </c>
       <c r="K59" s="3">
         <v>3100</v>
       </c>
       <c r="L59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M59" s="3">
         <v>3900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3600</v>
       </c>
       <c r="N59" s="3">
         <v>3600</v>
@@ -3983,25 +4120,25 @@
         <v>3600</v>
       </c>
       <c r="Q59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R59" s="3">
         <v>2700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
-      </c>
-      <c r="W59" s="3">
-        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
@@ -4009,70 +4146,73 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10800</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5900</v>
-      </c>
-      <c r="W60" s="3">
-        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4101,19 +4244,19 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>900</v>
       </c>
       <c r="K61" s="3">
+        <v>900</v>
+      </c>
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
@@ -4122,58 +4265,61 @@
         <v>500</v>
       </c>
       <c r="P61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>18800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4400</v>
-      </c>
-      <c r="R61" s="3">
-        <v>300</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>2800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -4181,26 +4327,26 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4210,8 +4356,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,70 +4590,73 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11100</v>
       </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
       <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8600</v>
-      </c>
-      <c r="W66" s="3">
-        <v>100</v>
       </c>
       <c r="X66" s="3">
         <v>100</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,70 +4988,73 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-101700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-90300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-51800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-43300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-24200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-100</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
       </c>
       <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W72" s="3">
         <v>-20300</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-100</v>
       </c>
       <c r="X72" s="3">
         <v>-100</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>93800</v>
+      </c>
+      <c r="E76" s="3">
         <v>105700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>103600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>112200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>114900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>59800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-16400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-15100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-20700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-14900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-9900</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-7900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
       <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,17 +5625,17 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5479,8 +5678,8 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>8</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,62 +6057,65 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4600</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,43 +6161,44 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5989,19 +6210,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,23 +6393,23 @@
         <v>-2000</v>
       </c>
       <c r="E94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6196,25 +6426,25 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>6100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>40600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>26600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4900</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>5100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2300</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6642,14 +6891,14 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
@@ -6657,17 +6906,17 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>34500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,169 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -832,19 +835,22 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,47 +858,47 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>600</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
       </c>
       <c r="K9" s="3">
+        <v>600</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
@@ -917,62 +923,65 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
@@ -980,19 +989,22 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,13 +1183,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>19400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1181,56 +1200,56 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1238,11 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2700</v>
       </c>
       <c r="M18" s="3">
         <v>-2700</v>
       </c>
       <c r="N18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1531,35 +1564,35 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1567,110 +1600,116 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-800</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-8200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-1400</v>
       </c>
       <c r="V21" s="3">
         <v>-1400</v>
       </c>
       <c r="W21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1685,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
@@ -1703,117 +1742,123 @@
         <v>500</v>
       </c>
       <c r="O22" s="3">
+        <v>500</v>
+      </c>
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>1600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1823,23 +1868,23 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
@@ -1847,8 +1892,8 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2419,35 +2488,35 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2455,105 +2524,111 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>800</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>40800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2926,12 +3015,12 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2947,8 +3036,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2983,53 +3072,56 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1200</v>
       </c>
       <c r="H43" s="3">
         <v>1200</v>
       </c>
       <c r="I43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -3057,46 +3149,49 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1300</v>
       </c>
       <c r="F44" s="3">
         <v>1300</v>
       </c>
       <c r="G44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1200</v>
       </c>
       <c r="K44" s="3">
         <v>1200</v>
       </c>
       <c r="L44" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M44" s="3">
         <v>1000</v>
       </c>
       <c r="N44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="3">
         <v>600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
@@ -3108,96 +3203,99 @@
         <v>400</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
       <c r="Y44" s="3">
         <v>0</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
@@ -3205,82 +3303,88 @@
       <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E46" s="3">
         <v>19200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>44700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>63500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3288,7 +3392,7 @@
         <v>1500</v>
       </c>
       <c r="E47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F47" s="3">
         <v>500</v>
@@ -3296,8 +3400,8 @@
       <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="H47" s="3">
+        <v>500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3314,8 +3418,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3353,73 +3457,76 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
@@ -3427,34 +3534,37 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E49" s="3">
         <v>74600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>75200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>69300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>70200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>84500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -3466,7 +3576,7 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -3475,25 +3585,25 @@
         <v>300</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3667,22 +3786,22 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3703,19 +3822,19 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E54" s="3">
         <v>103000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>113900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>132700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>64900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,16 +4056,17 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2400</v>
       </c>
       <c r="F57" s="3">
         <v>2400</v>
@@ -3945,7 +4075,7 @@
         <v>2400</v>
       </c>
       <c r="H57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="I57" s="3">
         <v>1900</v>
@@ -3954,60 +4084,63 @@
         <v>1900</v>
       </c>
       <c r="K57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>14900</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4015,8 +4148,8 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4025,93 +4158,96 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>14100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>13900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3">
         <v>3900</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3100</v>
       </c>
       <c r="L59" s="3">
         <v>3100</v>
       </c>
       <c r="M59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N59" s="3">
         <v>3900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3600</v>
       </c>
       <c r="O59" s="3">
         <v>3600</v>
@@ -4123,25 +4259,25 @@
         <v>3600</v>
       </c>
       <c r="R59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S59" s="3">
         <v>2700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
-      </c>
-      <c r="X59" s="3">
-        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
@@ -4149,73 +4285,76 @@
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10800</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
       <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5900</v>
-      </c>
-      <c r="X60" s="3">
-        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
@@ -4223,13 +4362,16 @@
       <c r="Z60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>15400</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -4247,19 +4389,19 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K61" s="3">
         <v>900</v>
       </c>
       <c r="L61" s="3">
+        <v>900</v>
+      </c>
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
@@ -4268,61 +4410,64 @@
         <v>500</v>
       </c>
       <c r="Q61" s="3">
+        <v>500</v>
+      </c>
+      <c r="R61" s="3">
         <v>18800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4400</v>
-      </c>
-      <c r="S61" s="3">
-        <v>300</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>2800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -4330,26 +4475,26 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4359,8 +4504,8 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,73 +4747,76 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11100</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
         <v>100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8600</v>
-      </c>
-      <c r="X66" s="3">
-        <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,73 +5161,76 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-101700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-90300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-61100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-51800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-43300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-32400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-24200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-100</v>
       </c>
       <c r="V72" s="3">
         <v>-100</v>
       </c>
       <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X72" s="3">
         <v>-20300</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-100</v>
       </c>
       <c r="Y72" s="3">
         <v>-100</v>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E76" s="3">
         <v>93800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>105700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>103600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>112200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>114900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>59800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-13700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-16400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-15100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-25700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-20700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-14900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9900</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-7900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
       <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,29 +5813,30 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
         <v>1100</v>
       </c>
       <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -5681,8 +5879,8 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>8</v>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,65 +6273,68 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4600</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,46 +6381,47 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
-        <v>-800</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6213,19 +6433,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,35 +6610,38 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2000</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
         <v>-2000</v>
       </c>
       <c r="F94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6429,25 +6658,25 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>40600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>26600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>5100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2300</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6894,14 +7142,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
@@ -6909,17 +7157,17 @@
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>34500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,246 +665,260 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
       </c>
       <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>600</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
@@ -926,58 +940,64 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>3100</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>400</v>
+      </c>
+      <c r="H10" s="3">
+        <v>300</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -986,25 +1006,31 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1058,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F12" s="3">
         <v>9200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
       </c>
       <c r="N12" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O12" s="3">
         <v>900</v>
       </c>
       <c r="P12" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>900</v>
+      </c>
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1220,97 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>19400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F17" s="3">
         <v>35000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3300</v>
       </c>
       <c r="N17" s="3">
         <v>3900</v>
       </c>
       <c r="O17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>8600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-34500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-13600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-11400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-5300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-8500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,156 +1635,168 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-800</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-33500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-10300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-4300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-5200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-8200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
         <v>3700</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1727,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>500</v>
@@ -1745,161 +1825,173 @@
         <v>500</v>
       </c>
       <c r="P22" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>700</v>
       </c>
       <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>700</v>
       </c>
       <c r="U22" s="3">
+        <v>600</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>1600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-38300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-5800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-8200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1934,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-38300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-5800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-38300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-10000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2491,144 +2631,156 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>800</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-38300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-38300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F41" s="3">
         <v>29800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>28000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>32100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>40800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>47500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>58600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>26100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3018,15 +3198,15 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3039,11 +3219,11 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -3075,59 +3255,65 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
@@ -3152,52 +3338,58 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F44" s="3">
         <v>2200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1200</v>
       </c>
       <c r="I44" s="3">
         <v>1300</v>
       </c>
       <c r="J44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>400</v>
       </c>
       <c r="R44" s="3">
         <v>400</v>
@@ -3206,185 +3398,203 @@
         <v>400</v>
       </c>
       <c r="T44" s="3">
+        <v>400</v>
+      </c>
+      <c r="U44" s="3">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>300</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
       <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
         <v>200</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>0</v>
-      </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>8</v>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F46" s="3">
         <v>35800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>19200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>31000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>35700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>44700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>46900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>63500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>27900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3395,19 +3605,19 @@
         <v>1500</v>
       </c>
       <c r="F47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -3421,11 +3631,11 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3460,117 +3670,129 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6000</v>
+        <v>8400</v>
       </c>
       <c r="E48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G48" s="3">
         <v>7500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>8</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>54400</v>
+        <v>61100</v>
       </c>
       <c r="E49" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>54500</v>
+      </c>
+      <c r="G49" s="3">
         <v>74600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>75200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>69300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>70200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>84500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>400</v>
@@ -3579,43 +3801,49 @@
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
       </c>
       <c r="S49" s="3">
+        <v>300</v>
+      </c>
+      <c r="T49" s="3">
+        <v>300</v>
+      </c>
+      <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
+      <c r="Z49" s="3">
+        <v>0</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,16 +4002,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -3789,25 +4029,25 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -3825,28 +4065,34 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>93800</v>
+      </c>
+      <c r="F54" s="3">
         <v>97900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>103000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>113900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>112000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>117400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>132700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>64900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>26900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,203 +4317,217 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2400</v>
       </c>
       <c r="H57" s="3">
         <v>2400</v>
       </c>
       <c r="I57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="J57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
       </c>
       <c r="L57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+        <v>20300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>15800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>7200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>11800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>10300</v>
-      </c>
-      <c r="P58" s="3">
-        <v>10100</v>
       </c>
       <c r="Q58" s="3">
         <v>10300</v>
       </c>
       <c r="R58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="T58" s="3">
         <v>4100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>14100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>13900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>8900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3900</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E59" s="3">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="F59" s="3">
-        <v>2800</v>
+        <v>3900</v>
       </c>
       <c r="G59" s="3">
         <v>2900</v>
       </c>
       <c r="H59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>3600</v>
       </c>
       <c r="Q59" s="3">
         <v>3600</v>
@@ -4262,122 +4536,134 @@
         <v>3600</v>
       </c>
       <c r="S59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U59" s="3">
         <v>2700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
       <c r="X59" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21600</v>
+        <v>29100</v>
       </c>
       <c r="E60" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>22700</v>
+      </c>
+      <c r="G60" s="3">
         <v>6300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>16800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>16100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>16600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>18400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>17200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10800</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3">
-        <v>100</v>
-      </c>
       <c r="X60" s="3">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>100</v>
+        <v>5900</v>
       </c>
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15400</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>14500</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -4392,93 +4678,99 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
-      </c>
-      <c r="L61" s="3">
-        <v>900</v>
-      </c>
-      <c r="M61" s="3">
-        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>900</v>
       </c>
       <c r="O61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P61" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="Q61" s="3">
         <v>500</v>
       </c>
       <c r="R61" s="3">
+        <v>500</v>
+      </c>
+      <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
         <v>18800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>4400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2800</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4487,31 +4779,31 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E66" s="3">
         <v>39700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>39700</v>
+      </c>
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>18600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>17600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>29100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>23500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>17500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11100</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3">
-        <v>100</v>
-      </c>
       <c r="X66" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
       </c>
       <c r="Z66" s="3">
-        <v>100</v>
+        <v>8600</v>
       </c>
       <c r="AA66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-153500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-115300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-101700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-90300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-80300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-76100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-71200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-68400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-65200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-61100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-57800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-54600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-48500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-43300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-38200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-32400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-24200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-100</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-20300</v>
       </c>
       <c r="Y72" s="3">
         <v>-100</v>
       </c>
       <c r="Z72" s="3">
-        <v>-100</v>
+        <v>-20300</v>
       </c>
       <c r="AA72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F76" s="3">
         <v>58200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>93800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>105700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>103600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>112200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>114900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>59800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-13700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-16400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-15100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-10300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-25700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-20700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-14900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-9900</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-100</v>
-      </c>
       <c r="X76" s="3">
-        <v>-7900</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="3">
         <v>-100</v>
       </c>
       <c r="Z76" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="AA76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-38300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,35 +6210,37 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5882,17 +6280,23 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>8</v>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,71 +6704,77 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-4700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4600</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6787,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,52 +6822,54 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6436,22 +6878,22 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>8</v>
@@ -6459,8 +6901,14 @@
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,41 +7067,47 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6661,28 +7121,28 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>8</v>
@@ -6690,8 +7150,14 @@
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7513,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F100" s="3">
         <v>27700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>40600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>26600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>6900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>4100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>5100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>2300</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7145,8 +7643,8 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -7154,26 +7652,26 @@
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7181,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F102" s="3">
         <v>14500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-12700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-11100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>34500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>23900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ONDS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>ONDS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,190 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>600</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
       </c>
       <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
@@ -852,76 +856,79 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>600</v>
       </c>
       <c r="M9" s="3">
         <v>600</v>
       </c>
       <c r="N9" s="3">
+        <v>600</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
         <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
         <v>0</v>
       </c>
@@ -946,71 +953,74 @@
       <c r="AC9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
@@ -1018,19 +1028,22 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>400</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,68 +1257,68 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>19400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1306,11 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>14000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1200</v>
       </c>
-      <c r="AC17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-13600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2700</v>
       </c>
       <c r="P18" s="3">
         <v>-2700</v>
       </c>
       <c r="Q18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-5300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,13 +1650,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1641,35 +1675,35 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1677,129 +1711,135 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-800</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-5200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y21" s="3">
         <v>-1400</v>
       </c>
       <c r="Z21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1813,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>500</v>
       </c>
       <c r="O22" s="3">
         <v>500</v>
@@ -1831,137 +1871,143 @@
         <v>500</v>
       </c>
       <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>1600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
       </c>
       <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-38300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1969,23 +2015,23 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
@@ -1993,8 +2039,8 @@
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-38300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-38300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,13 +2680,16 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2637,35 +2707,35 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2673,114 +2743,120 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>800</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-38300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-38300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,121 +3181,125 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>32100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>40800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>47500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3225,8 +3315,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3261,62 +3351,65 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>5100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1200</v>
       </c>
       <c r="K43" s="3">
         <v>1200</v>
       </c>
       <c r="L43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -3344,55 +3437,58 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1300</v>
       </c>
       <c r="I44" s="3">
         <v>1300</v>
       </c>
       <c r="J44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1200</v>
       </c>
       <c r="N44" s="3">
         <v>1200</v>
       </c>
       <c r="O44" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="P44" s="3">
         <v>1000</v>
       </c>
       <c r="Q44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R44" s="3">
         <v>600</v>
-      </c>
-      <c r="R44" s="3">
-        <v>400</v>
       </c>
       <c r="S44" s="3">
         <v>400</v>
@@ -3404,105 +3500,108 @@
         <v>400</v>
       </c>
       <c r="V44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
       </c>
       <c r="X44" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
       </c>
       <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
         <v>200</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>8</v>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>8</v>
@@ -3510,91 +3609,97 @@
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E46" s="3">
         <v>13100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>44700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>63500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>27900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1000</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3611,7 +3716,7 @@
         <v>1500</v>
       </c>
       <c r="H47" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I47" s="3">
         <v>500</v>
@@ -3619,8 +3724,8 @@
       <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>500</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3637,8 +3742,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3676,82 +3781,85 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>8</v>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>8</v>
@@ -3759,43 +3867,46 @@
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E49" s="3">
         <v>61100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>61800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>74600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>69300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>70200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>84500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
@@ -3807,7 +3918,7 @@
         <v>400</v>
       </c>
       <c r="R49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
@@ -3816,25 +3927,25 @@
         <v>300</v>
       </c>
       <c r="U49" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,19 +4125,22 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>65600</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
@@ -4035,22 +4155,22 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -4071,19 +4191,19 @@
         <v>100</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E54" s="3">
         <v>84600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>93800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>97900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>103000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>113900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>117400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>132700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1200</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3">
         <v>0</v>
       </c>
       <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,25 +4449,26 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2400</v>
       </c>
       <c r="I57" s="3">
         <v>2400</v>
@@ -4346,7 +4477,7 @@
         <v>2400</v>
       </c>
       <c r="K57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L57" s="3">
         <v>1900</v>
@@ -4355,78 +4486,81 @@
         <v>1900</v>
       </c>
       <c r="N57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E58" s="3">
         <v>20300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4435,102 +4569,105 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>7200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>11800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>14100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>13900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8900</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" s="3">
         <v>3900</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3100</v>
       </c>
       <c r="O59" s="3">
         <v>3100</v>
       </c>
       <c r="P59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>3600</v>
       </c>
       <c r="R59" s="3">
         <v>3600</v>
@@ -4542,25 +4679,25 @@
         <v>3600</v>
       </c>
       <c r="U59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V59" s="3">
         <v>2700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>100</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
@@ -4568,82 +4705,85 @@
       <c r="AC59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E60" s="3">
         <v>29100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>18400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>17200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10800</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
-      </c>
       <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5900</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>100</v>
       </c>
       <c r="AB60" s="3">
         <v>100</v>
@@ -4651,22 +4791,25 @@
       <c r="AC60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -4684,19 +4827,19 @@
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>900</v>
       </c>
       <c r="O61" s="3">
+        <v>900</v>
+      </c>
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>500</v>
       </c>
       <c r="R61" s="3">
         <v>500</v>
@@ -4705,70 +4848,73 @@
         <v>500</v>
       </c>
       <c r="T61" s="3">
+        <v>500</v>
+      </c>
+      <c r="U61" s="3">
         <v>18800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4400</v>
-      </c>
-      <c r="V61" s="3">
-        <v>300</v>
       </c>
       <c r="W61" s="3">
         <v>300</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>2800</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -4776,26 +4922,26 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4805,8 +4951,8 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,82 +5221,85 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E66" s="3">
         <v>35000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>39700</v>
       </c>
       <c r="F66" s="3">
         <v>39700</v>
       </c>
       <c r="G66" s="3">
+        <v>39700</v>
+      </c>
+      <c r="H66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11100</v>
       </c>
-      <c r="X66" s="3">
-        <v>0</v>
-      </c>
       <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
         <v>100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8600</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>100</v>
       </c>
       <c r="AB66" s="3">
         <v>100</v>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,82 +5683,85 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-184200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-168000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-153500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-115300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-101700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-90300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-80300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-71200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-61100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-57800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-48500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-43300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-38200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-32400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-24200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-100</v>
       </c>
       <c r="Y72" s="3">
         <v>-100</v>
       </c>
       <c r="Z72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-20300</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-100</v>
       </c>
       <c r="AB72" s="3">
         <v>-100</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E76" s="3">
         <v>49500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>54100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>93800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>105700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>103600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>112200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>114900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>59800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-13700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-15100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-25700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-20700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-14900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9900</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
       <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
-      <c r="AB76" s="3">
-        <v>0</v>
-      </c>
       <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-38300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,38 +6410,39 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E83" s="3">
         <v>1200</v>
       </c>
       <c r="F83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1100</v>
       </c>
       <c r="H83" s="3">
         <v>1100</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -6286,8 +6485,8 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>8</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>8</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,74 +6924,77 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4600</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,55 +7044,56 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6884,19 +7105,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>8</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,44 +7300,47 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2000</v>
       </c>
       <c r="H94" s="3">
         <v>-2000</v>
       </c>
       <c r="I94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -7127,25 +7357,25 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>8</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>8</v>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>40600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2300</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7649,14 +7898,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
@@ -7664,17 +7913,17 @@
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-12700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
